--- a/www/IndicatorsPerCountry/TrinidadandTobago_Inflation_TerritorialRef_1962_2012_CCode_780.xlsx
+++ b/www/IndicatorsPerCountry/TrinidadandTobago_Inflation_TerritorialRef_1962_2012_CCode_780.xlsx
@@ -234,13 +234,13 @@
     <t>Zwart, Pim de (2015). Inflation. http://hdl.handle.net/10622/UJ3H1Q, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UJ3H1Q.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UJ3H1Q.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UJ3H1Q.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UJ3H1Q.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UJ3H1Q.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UJ3H1Q.bib</t>
   </si>
 </sst>
 </file>
